--- a/research_code/weights/Models_Performance_Summary_V2.0.xlsx
+++ b/research_code/weights/Models_Performance_Summary_V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\osmahus\Code\DF\Final_V2.0\WPT-ViT\research_code\weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD5F9A-8AA5-4CB6-A7B5-50F994EB6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1CC4A-48EC-4BB8-AA68-6CE320A7A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28710" yWindow="0" windowWidth="16395" windowHeight="14145" xr2:uid="{6D073A67-87EE-4B65-AD87-12E0353C014E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>wavelet_fun</t>
   </si>
@@ -740,22 +740,22 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="11" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="19" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="39.140625" style="7" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -915,7 +915,7 @@
     </row>
     <row r="3" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="4" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -1096,14 +1096,30 @@
       <c r="M5" s="4">
         <v>207686</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="4"/>
+      <c r="N5" s="5">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.2997685185185187E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="12"/>
@@ -1115,7 +1131,7 @@
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1169,7 +1185,7 @@
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1225,7 +1241,7 @@
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -1279,7 +1295,7 @@
     </row>
     <row r="9" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1333,7 +1349,7 @@
     </row>
     <row r="10" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -1389,7 +1405,7 @@
     </row>
     <row r="11" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="12" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
